--- a/test/test_data.xlsx
+++ b/test/test_data.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyThings\Projects\WebDev\FastenerApplication\predictive-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyThings\Projects\WebDev\FastenerApplication\predictive-app\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B839B6D-7122-4EB1-BEB1-A65745AC1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61413CF1-D77B-4866-B109-6C8593AE83D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_16" sheetId="1" r:id="rId1"/>
     <sheet name="feature_15" sheetId="2" r:id="rId2"/>
-    <sheet name="feature_14" sheetId="4" r:id="rId3"/>
-    <sheet name="feature_13" sheetId="3" r:id="rId4"/>
+    <sheet name="feature_14" sheetId="3" r:id="rId3"/>
+    <sheet name="feature_13" sheetId="4" r:id="rId4"/>
     <sheet name="feature_12" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,77 +39,84 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
   <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Included Angle</t>
+  </si>
+  <si>
+    <t>Top Angle</t>
+  </si>
+  <si>
+    <t>Serrations</t>
+  </si>
+  <si>
+    <t>Length (C)</t>
+  </si>
+  <si>
+    <t>Length (B)</t>
+  </si>
+  <si>
+    <t>Embedment depth</t>
+  </si>
+  <si>
+    <t>Tip Taper</t>
+  </si>
+  <si>
+    <t>Torque Tool</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Undercut</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Concrete_TX</t>
+  </si>
+  <si>
+    <t>Concrete_WC</t>
+  </si>
+  <si>
     <t>Major Diameter</t>
   </si>
   <si>
     <t>Minor Diameter</t>
   </si>
   <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>Included Angle</t>
-  </si>
-  <si>
-    <t>Top Angle</t>
-  </si>
-  <si>
     <t>Hole Diameter</t>
   </si>
   <si>
-    <t>Serrations</t>
-  </si>
-  <si>
-    <t>Length (C)</t>
-  </si>
-  <si>
-    <t>Length (B)</t>
-  </si>
-  <si>
-    <t>Embedment depth</t>
-  </si>
-  <si>
-    <t>Tip Taper</t>
-  </si>
-  <si>
     <t>Shank Diameter</t>
   </si>
   <si>
-    <t>Torque Tool</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Undercut</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
     <t>WC</t>
-  </si>
-  <si>
-    <t>Concrete_TX</t>
-  </si>
-  <si>
-    <t>Concrete_WC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +127,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -135,18 +146,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -157,7 +195,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -204,20 +242,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -247,12 +285,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -291,255 +329,286 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.47</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D2" s="10">
         <v>40</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>3.5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>4</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>3.25</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>0.373</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="7">
         <v>300</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" ref="O2" si="0">ABS(A2-F2)</f>
-        <v>7.1999999999999953E-2</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" ref="P2" si="1">F2-B2</f>
-        <v>4.4000000000000039E-2</v>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="P2" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -548,98 +617,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B07C6B-3F9A-4168-B93C-706BBFDCC5FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <f>feature_16!A2</f>
         <v>0.47</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <f>feature_16!B2</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <f>feature_16!C2</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D2" s="7">
         <f>feature_16!D2</f>
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <f>feature_16!E2</f>
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <f>feature_16!F2</f>
         <v>0.39800000000000002</v>
       </c>
@@ -647,34 +719,34 @@
         <f>feature_16!G2</f>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <f>feature_16!H2</f>
         <v>3.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f>feature_16!I2</f>
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <f>feature_16!J2</f>
         <v>3.25</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <f>feature_16!K2</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <f>feature_16!L2</f>
         <v>0.373</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <f>feature_16!M2</f>
         <v>300</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -684,125 +756,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8874221F-1E0F-4029-A06F-A5D777BA31B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <f>feature_16!A2</f>
         <v>0.47</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <f>feature_16!B2</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <f>feature_16!C2</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D2" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D2" s="1">
         <f>feature_16!D2</f>
         <v>40</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <f>feature_16!E2</f>
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <f>feature_16!F2</f>
         <v>0.39800000000000002</v>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="1" t="b">
         <f>feature_16!G2</f>
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>feature_16!H2</f>
         <v>3.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <f>feature_16!I2</f>
         <v>4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <f>feature_16!J2</f>
         <v>3.25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <f>feature_16!K2</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <f>feature_16!M2</f>
         <v>300</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -812,116 +886,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835AEDD6-59BD-4E1A-BC93-4C47EF182B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <f>feature_16!C2</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="B2" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="B2" s="1">
         <f>feature_16!D2</f>
         <v>40</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <f>feature_16!E2</f>
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="1" t="b">
         <f>feature_16!G2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <f>feature_16!H2</f>
         <v>3.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <f>feature_16!I2</f>
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <f>feature_16!J2</f>
         <v>3.25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>feature_16!K2</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <f>feature_16!M2</f>
         <v>300</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <f>feature_16!O2</f>
-        <v>7.1999999999999953E-2</v>
-      </c>
-      <c r="K2" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="K2" s="1">
         <f>feature_16!P2</f>
-        <v>4.4000000000000039E-2</v>
-      </c>
-      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -931,100 +1008,97 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D728112-BE81-4D1F-BC43-C480DB88A66B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <f>feature_16!C2</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="B2" s="3">
-        <f>feature_16!D2</f>
-        <v>40</v>
-      </c>
-      <c r="C2" s="3">
-        <f>feature_16!E2</f>
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <f>feature_16!G2</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <f>feature_16!H2</f>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="B2" s="1">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.5</v>
       </c>
-      <c r="F2" s="3">
-        <f>feature_16!I2</f>
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
-        <f>feature_16!J2</f>
+      <c r="G2" s="1">
         <v>3.25</v>
       </c>
-      <c r="H2" s="3">
-        <f>feature_16!K2</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I2" s="3">
-        <f>feature_16!M2</f>
-        <v>300</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>500</v>
+      </c>
+      <c r="J2" s="1">
         <v>5500</v>
       </c>
-      <c r="K2" s="3">
-        <f>feature_16!O2</f>
-        <v>7.1999999999999953E-2</v>
-      </c>
-      <c r="L2" s="3">
-        <f>feature_16!P2</f>
-        <v>4.4000000000000039E-2</v>
+      <c r="K2" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
